--- a/src/main/java/com/crm/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/TestData.xlsx
@@ -1,64 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{49CBE4DB-30E8-48B0-AE49-07EFF961F658}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\POM_With_OOPs\src\main\java\com\crm\qa\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FDC98-1032-4147-ADAD-C36F7565DF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24270" windowHeight="13800" activeTab="1" xr2:uid="{AEA61CE9-904C-4B2C-9CA6-5ED5A96DF8AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AEA61CE9-904C-4B2C-9CA6-5ED5A96DF8AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="demo" sheetId="1" r:id="rId1"/>
-    <sheet name="NewContacts" sheetId="2" r:id="rId2"/>
+    <sheet name="qa" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>data1</t>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
-  <si>
-    <t>data3</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>pqr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>first name</t>
   </si>
@@ -444,83 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C714E95-7BE9-4402-9623-4B1EEAE8FF1C}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F576C-CF67-4815-BF1F-94B2CBF09C5B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,46 +428,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
